--- a/data_year/zb/价格指数/农村居民消费价格分类指数(上年=100)(-2015)/医疗保健和个人用品类农村居民消费价格指数(上年=100).xlsx
+++ b/data_year/zb/价格指数/农村居民消费价格分类指数(上年=100)(-2015)/医疗保健和个人用品类农村居民消费价格指数(上年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,674 +498,258 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>103</v>
+      </c>
+      <c r="D2" t="n">
+        <v>106.8</v>
+      </c>
       <c r="E2" t="n">
-        <v>105</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+        <v>111.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100.5</v>
+      </c>
       <c r="H2" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>103.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>101</v>
+      </c>
       <c r="J2" t="n">
-        <v>100.6</v>
+        <v>103.4</v>
       </c>
       <c r="K2" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
+        <v>105.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100.4</v>
+      </c>
       <c r="M2" t="n">
-        <v>97.5</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.8</v>
+        <v>105.28330846</v>
       </c>
       <c r="C3" t="n">
-        <v>99.5</v>
+        <v>104.21989805</v>
       </c>
       <c r="D3" t="n">
-        <v>98.8</v>
+        <v>108.69239411</v>
       </c>
       <c r="E3" t="n">
-        <v>102.1</v>
+        <v>112.55643572</v>
       </c>
       <c r="F3" t="n">
-        <v>99.2</v>
+        <v>103.84671427</v>
       </c>
       <c r="G3" t="n">
-        <v>98.2</v>
+        <v>100.73570155</v>
       </c>
       <c r="H3" t="n">
-        <v>101.1</v>
+        <v>103.29651958</v>
       </c>
       <c r="I3" t="n">
-        <v>108.9</v>
+        <v>100.77694153</v>
       </c>
       <c r="J3" t="n">
-        <v>102.1</v>
+        <v>102.92006683</v>
       </c>
       <c r="K3" t="n">
-        <v>98</v>
+        <v>100.38700377</v>
       </c>
       <c r="L3" t="n">
-        <v>98.40000000000001</v>
+        <v>101.53327269</v>
       </c>
       <c r="M3" t="n">
-        <v>96</v>
+        <v>100.184179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.6</v>
+        <v>105.71927669</v>
       </c>
       <c r="C4" t="n">
-        <v>99.40000000000001</v>
+        <v>103.05492057</v>
       </c>
       <c r="D4" t="n">
-        <v>99.2</v>
+        <v>101.40043124</v>
       </c>
       <c r="E4" t="n">
-        <v>97.40000000000001</v>
+        <v>105.0613737</v>
       </c>
       <c r="F4" t="n">
-        <v>98.59999999999999</v>
+        <v>102.83245414</v>
       </c>
       <c r="G4" t="n">
-        <v>98.3</v>
+        <v>101.19694488</v>
       </c>
       <c r="H4" t="n">
-        <v>100.1</v>
+        <v>102.14033983</v>
       </c>
       <c r="I4" t="n">
-        <v>107.6</v>
+        <v>100.92666988</v>
       </c>
       <c r="J4" t="n">
-        <v>100.5</v>
+        <v>101.76277315</v>
       </c>
       <c r="K4" t="n">
-        <v>97.3</v>
+        <v>102.88223207</v>
       </c>
       <c r="L4" t="n">
-        <v>97.90000000000001</v>
+        <v>103.05683193</v>
       </c>
       <c r="M4" t="n">
-        <v>95.5</v>
+        <v>100.4967329</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.2468</v>
+        <v>106.64311252</v>
       </c>
       <c r="C5" t="n">
-        <v>100.428</v>
+        <v>101.9</v>
       </c>
       <c r="D5" t="n">
-        <v>101.1818</v>
+        <v>96.28035794</v>
       </c>
       <c r="E5" t="n">
-        <v>107.3752</v>
+        <v>103.26063723</v>
       </c>
       <c r="F5" t="n">
-        <v>98.1874</v>
+        <v>101.35248925</v>
       </c>
       <c r="G5" t="n">
-        <v>98.8843</v>
+        <v>101.19603528</v>
       </c>
       <c r="H5" t="n">
-        <v>102.4824</v>
+        <v>101.8</v>
       </c>
       <c r="I5" t="n">
-        <v>109.9741</v>
+        <v>103.02057604</v>
       </c>
       <c r="J5" t="n">
-        <v>103.5489</v>
+        <v>101.8</v>
       </c>
       <c r="K5" t="n">
-        <v>101.1594</v>
+        <v>100.36362962</v>
       </c>
       <c r="L5" t="n">
-        <v>98.4477</v>
+        <v>102.14179518</v>
       </c>
       <c r="M5" t="n">
-        <v>95.24299999999999</v>
+        <v>99.61147371</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102.3617</v>
+        <v>104.92380953</v>
       </c>
       <c r="C6" t="n">
-        <v>101.3471</v>
+        <v>101</v>
       </c>
       <c r="D6" t="n">
-        <v>102.7013</v>
+        <v>95.75487189</v>
       </c>
       <c r="E6" t="n">
-        <v>99.0859</v>
+        <v>102.78163327</v>
       </c>
       <c r="F6" t="n">
-        <v>96.869</v>
+        <v>103.12277091</v>
       </c>
       <c r="G6" t="n">
-        <v>99.0401</v>
+        <v>100.81542059</v>
       </c>
       <c r="H6" t="n">
-        <v>100.4867</v>
+        <v>101.5</v>
       </c>
       <c r="I6" t="n">
-        <v>106.8042</v>
+        <v>101.48831891</v>
       </c>
       <c r="J6" t="n">
-        <v>100.0725</v>
+        <v>101.7</v>
       </c>
       <c r="K6" t="n">
-        <v>101.5941</v>
+        <v>99.82167837</v>
       </c>
       <c r="L6" t="n">
-        <v>98.8169</v>
+        <v>101.06707306</v>
       </c>
       <c r="M6" t="n">
-        <v>94.11450000000001</v>
+        <v>101.04867955</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.6059</v>
+        <v>104.81967921</v>
       </c>
       <c r="C7" t="n">
-        <v>101.1557</v>
+        <v>101.3180991</v>
       </c>
       <c r="D7" t="n">
-        <v>101.2413</v>
+        <v>97.44209787</v>
       </c>
       <c r="E7" t="n">
-        <v>95.95099999999999</v>
+        <v>102.06833976</v>
       </c>
       <c r="F7" t="n">
-        <v>99.7764</v>
+        <v>104.23915734</v>
       </c>
       <c r="G7" t="n">
-        <v>99.9636</v>
+        <v>100.60473592</v>
       </c>
       <c r="H7" t="n">
-        <v>100.4598</v>
+        <v>102.34885558</v>
       </c>
       <c r="I7" t="n">
-        <v>105.5592</v>
+        <v>103.08549636</v>
       </c>
       <c r="J7" t="n">
-        <v>100.1275</v>
+        <v>102.77696598</v>
       </c>
       <c r="K7" t="n">
-        <v>97.12350000000001</v>
+        <v>100.81038893</v>
       </c>
       <c r="L7" t="n">
-        <v>99.3583</v>
+        <v>100.68554779</v>
       </c>
       <c r="M7" t="n">
-        <v>97.7097</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>102.99003097</v>
-      </c>
-      <c r="C8" t="n">
-        <v>103.39745495</v>
-      </c>
-      <c r="D8" t="n">
-        <v>109.44937075</v>
-      </c>
-      <c r="E8" t="n">
-        <v>99.57841875</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100.02575217</v>
-      </c>
-      <c r="G8" t="n">
-        <v>100.03795282</v>
-      </c>
-      <c r="H8" t="n">
-        <v>101.48532005</v>
-      </c>
-      <c r="I8" t="n">
-        <v>103.59988354</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100.6318957</v>
-      </c>
-      <c r="K8" t="n">
-        <v>96.87247502</v>
-      </c>
-      <c r="L8" t="n">
-        <v>99.94943481999999</v>
-      </c>
-      <c r="M8" t="n">
-        <v>98.77952888999999</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>104.42007609</v>
-      </c>
-      <c r="C9" t="n">
-        <v>102.64762604</v>
-      </c>
-      <c r="D9" t="n">
-        <v>103.81158213</v>
-      </c>
-      <c r="E9" t="n">
-        <v>108.77202492</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100.90064068</v>
-      </c>
-      <c r="G9" t="n">
-        <v>100.33925154</v>
-      </c>
-      <c r="H9" t="n">
-        <v>102.80260382</v>
-      </c>
-      <c r="I9" t="n">
-        <v>103.21752133</v>
-      </c>
-      <c r="J9" t="n">
-        <v>102.85915475</v>
-      </c>
-      <c r="K9" t="n">
-        <v>98.01613199000001</v>
-      </c>
-      <c r="L9" t="n">
-        <v>100.52469428</v>
-      </c>
-      <c r="M9" t="n">
-        <v>99.62541311</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>106.44036153</v>
-      </c>
-      <c r="C10" t="n">
-        <v>104.8650687</v>
-      </c>
-      <c r="D10" t="n">
-        <v>108.33652143</v>
-      </c>
-      <c r="E10" t="n">
-        <v>107.54258357</v>
-      </c>
-      <c r="F10" t="n">
-        <v>102.64322914</v>
-      </c>
-      <c r="G10" t="n">
-        <v>100.81998734</v>
-      </c>
-      <c r="H10" t="n">
-        <v>103.23400587</v>
-      </c>
-      <c r="I10" t="n">
-        <v>101.09213051</v>
-      </c>
-      <c r="J10" t="n">
-        <v>102.54773497</v>
-      </c>
-      <c r="K10" t="n">
-        <v>98.88999401</v>
-      </c>
-      <c r="L10" t="n">
-        <v>101.97601764</v>
-      </c>
-      <c r="M10" t="n">
-        <v>101.20162122</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>104.82045832</v>
-      </c>
-      <c r="C11" t="n">
-        <v>101.54668896</v>
-      </c>
-      <c r="D11" t="n">
-        <v>97.50319628</v>
-      </c>
-      <c r="E11" t="n">
-        <v>101.6185323</v>
-      </c>
-      <c r="F11" t="n">
-        <v>101.34849436</v>
-      </c>
-      <c r="G11" t="n">
-        <v>100.82699011</v>
-      </c>
-      <c r="H11" t="n">
-        <v>101.47824935</v>
-      </c>
-      <c r="I11" t="n">
-        <v>101.18293072</v>
-      </c>
-      <c r="J11" t="n">
-        <v>101.45294415</v>
-      </c>
-      <c r="K11" t="n">
-        <v>101.22917271</v>
-      </c>
-      <c r="L11" t="n">
-        <v>101.94536926</v>
-      </c>
-      <c r="M11" t="n">
-        <v>101.63638689</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>103.3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>103</v>
-      </c>
-      <c r="D12" t="n">
-        <v>106.8</v>
-      </c>
-      <c r="E12" t="n">
-        <v>111.1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>101</v>
-      </c>
-      <c r="J12" t="n">
-        <v>103.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>105.8</v>
-      </c>
-      <c r="L12" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>101.3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>105.28330846</v>
-      </c>
-      <c r="C13" t="n">
-        <v>104.21989805</v>
-      </c>
-      <c r="D13" t="n">
-        <v>108.69239411</v>
-      </c>
-      <c r="E13" t="n">
-        <v>112.55643572</v>
-      </c>
-      <c r="F13" t="n">
-        <v>103.84671427</v>
-      </c>
-      <c r="G13" t="n">
-        <v>100.73570155</v>
-      </c>
-      <c r="H13" t="n">
-        <v>103.29651958</v>
-      </c>
-      <c r="I13" t="n">
-        <v>100.77694153</v>
-      </c>
-      <c r="J13" t="n">
-        <v>102.92006683</v>
-      </c>
-      <c r="K13" t="n">
-        <v>100.38700377</v>
-      </c>
-      <c r="L13" t="n">
-        <v>101.53327269</v>
-      </c>
-      <c r="M13" t="n">
-        <v>100.184179</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>105.71927669</v>
-      </c>
-      <c r="C14" t="n">
-        <v>103.05492057</v>
-      </c>
-      <c r="D14" t="n">
-        <v>101.40043124</v>
-      </c>
-      <c r="E14" t="n">
-        <v>105.0613737</v>
-      </c>
-      <c r="F14" t="n">
-        <v>102.83245414</v>
-      </c>
-      <c r="G14" t="n">
-        <v>101.19694488</v>
-      </c>
-      <c r="H14" t="n">
-        <v>102.14033983</v>
-      </c>
-      <c r="I14" t="n">
-        <v>100.92666988</v>
-      </c>
-      <c r="J14" t="n">
-        <v>101.76277315</v>
-      </c>
-      <c r="K14" t="n">
-        <v>102.88223207</v>
-      </c>
-      <c r="L14" t="n">
-        <v>103.05683193</v>
-      </c>
-      <c r="M14" t="n">
-        <v>100.4967329</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>106.64311252</v>
-      </c>
-      <c r="C15" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>96.28035794</v>
-      </c>
-      <c r="E15" t="n">
-        <v>103.26063723</v>
-      </c>
-      <c r="F15" t="n">
-        <v>101.35248925</v>
-      </c>
-      <c r="G15" t="n">
-        <v>101.19603528</v>
-      </c>
-      <c r="H15" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="I15" t="n">
-        <v>103.02057604</v>
-      </c>
-      <c r="J15" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>100.36362962</v>
-      </c>
-      <c r="L15" t="n">
-        <v>102.14179518</v>
-      </c>
-      <c r="M15" t="n">
-        <v>99.61147371</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>104.92380953</v>
-      </c>
-      <c r="C16" t="n">
-        <v>101</v>
-      </c>
-      <c r="D16" t="n">
-        <v>95.75487189</v>
-      </c>
-      <c r="E16" t="n">
-        <v>102.78163327</v>
-      </c>
-      <c r="F16" t="n">
-        <v>103.12277091</v>
-      </c>
-      <c r="G16" t="n">
-        <v>100.81542059</v>
-      </c>
-      <c r="H16" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>101.48831891</v>
-      </c>
-      <c r="J16" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>99.82167837</v>
-      </c>
-      <c r="L16" t="n">
-        <v>101.06707306</v>
-      </c>
-      <c r="M16" t="n">
-        <v>101.04867955</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>104.81967921</v>
-      </c>
-      <c r="C17" t="n">
-        <v>101.3180991</v>
-      </c>
-      <c r="D17" t="n">
-        <v>97.44209787</v>
-      </c>
-      <c r="E17" t="n">
-        <v>102.06833976</v>
-      </c>
-      <c r="F17" t="n">
-        <v>104.23915734</v>
-      </c>
-      <c r="G17" t="n">
-        <v>100.60473592</v>
-      </c>
-      <c r="H17" t="n">
-        <v>102.34885558</v>
-      </c>
-      <c r="I17" t="n">
-        <v>103.08549636</v>
-      </c>
-      <c r="J17" t="n">
-        <v>102.77696598</v>
-      </c>
-      <c r="K17" t="n">
-        <v>100.81038893</v>
-      </c>
-      <c r="L17" t="n">
-        <v>100.68554779</v>
-      </c>
-      <c r="M17" t="n">
         <v>102.69716674</v>
       </c>
     </row>
